--- a/doc/bruce/DB-attendance.xlsx
+++ b/doc/bruce/DB-attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>模式名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,30 @@
       </rPr>
       <t>个人感觉标黄部分有待商榷。逻辑上还是走不通，大家思考一下吧。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>htObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -292,17 +316,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,14 +368,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,19 +690,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="134" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="134" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -653,84 +723,84 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -750,32 +820,32 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -795,124 +865,150 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4" t="s">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A26:D28"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:D30"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/bruce/DB-attendance.xlsx
+++ b/doc/bruce/DB-attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="624" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="初始-20161123" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,28 +13,40 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
-  <si>
-    <t>模式名称</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
-    <t>字段表示</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>字段描述</t>
-  </si>
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+  <si>
+    <t xml:space="preserve">模式名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字段名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字段表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字段类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字段描述</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">员工表</t>
     </r>
     <r>
@@ -49,49 +61,56 @@
     </r>
   </si>
   <si>
-    <t>员工编号</t>
-  </si>
-  <si>
-    <t>usernum</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>员工姓名</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>员工性别</t>
-  </si>
-  <si>
-    <t>usersex</t>
-  </si>
-  <si>
-    <t>员工密码</t>
-  </si>
-  <si>
-    <t>userpwd</t>
-  </si>
-  <si>
-    <t>员工角色</t>
-  </si>
-  <si>
-    <t>userrole</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>userbirth</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">员工编号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usernum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工姓名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工性别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usersex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userpwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工角色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userrole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出生日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userbirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">假期种类表</t>
     </r>
     <r>
@@ -106,22 +125,29 @@
     </r>
   </si>
   <si>
-    <t>假期名</t>
-  </si>
-  <si>
-    <t>holname</t>
-  </si>
-  <si>
-    <t>假期时长</t>
-  </si>
-  <si>
-    <t>hollenth</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">假期名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">假期时长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hollenth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">请假条（</t>
     </r>
     <r>
@@ -136,40 +162,47 @@
     </r>
   </si>
   <si>
-    <t>请假对象</t>
-  </si>
-  <si>
-    <t>userObject</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>请假种类</t>
-  </si>
-  <si>
-    <t>htObject</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>starttime</t>
-  </si>
-  <si>
-    <t>时长</t>
-  </si>
-  <si>
-    <t>timelength</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">请假对象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请假种类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holidayType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开始时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">时长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当前状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curState</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">请假状态： 初始值为 </t>
     </r>
     <r>
@@ -188,6 +221,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">部分经理审批通过后为 </t>
     </r>
@@ -207,6 +241,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">， 副总审批通过后为 </t>
     </r>
@@ -226,6 +261,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">， 总经理审批通过后 </t>
     </r>
@@ -245,6 +281,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，期间任何一环审批不通过，状态变为 </t>
     </r>
@@ -260,7 +297,20 @@
     </r>
   </si>
   <si>
-    <r>
+    <t xml:space="preserve">最高状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hightState</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">打卡记录</t>
     </r>
     <r>
@@ -275,19 +325,29 @@
     </r>
   </si>
   <si>
-    <t>进入时间</t>
-  </si>
-  <si>
-    <t>entertime</t>
-  </si>
-  <si>
-    <t>离开时间</t>
-  </si>
-  <si>
-    <t>leavetime</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">进入时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entertime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">离开时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leavetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">角色</t>
     </r>
     <r>
@@ -302,25 +362,33 @@
     </r>
   </si>
   <si>
-    <t>角色名称</t>
-  </si>
-  <si>
-    <t>rolename</t>
-  </si>
-  <si>
-    <t>判定前状态</t>
-  </si>
-  <si>
-    <t>prestate</t>
-  </si>
-  <si>
-    <t>判定后状态</t>
-  </si>
-  <si>
-    <t>poststate</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">角色名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">判定前状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prestate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">判定后状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poststate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">注释：</t>
     </r>
     <r>
@@ -330,6 +398,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">个人感觉标黄部分有待商榷。逻辑上还是走不通，大家思考一下吧。</t>
     </r>
@@ -340,7 +409,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -348,6 +417,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -370,6 +440,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -391,6 +462,7 @@
       <color rgb="FFFF0000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -516,17 +588,18 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.4319248826291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.4366197183099"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.4835680751174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.4366197183099"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="155.389671361502"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="160.102325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,9 +839,15 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
+      <c r="B21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,13 +876,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>19</v>
@@ -813,10 +892,10 @@
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>19</v>
@@ -825,15 +904,23 @@
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
+      <c r="B26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
       <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
@@ -854,13 +941,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>8</v>
@@ -870,10 +957,10 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>25</v>
@@ -883,10 +970,10 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>25</v>
@@ -908,7 +995,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -945,6 +1032,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -968,6 +1058,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
